--- a/data/pca/factorExposure/factorExposure_2017-02-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01211781728657556</v>
+        <v>0.01123996966751074</v>
       </c>
       <c r="C2">
-        <v>0.01893094638544409</v>
+        <v>-0.0399869900183732</v>
       </c>
       <c r="D2">
-        <v>-0.03144643159801001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03121475428940864</v>
+      </c>
+      <c r="E2">
+        <v>0.05092484655889461</v>
+      </c>
+      <c r="F2">
+        <v>0.004195642149027607</v>
+      </c>
+      <c r="G2">
+        <v>-0.1136295919492749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04908075698176332</v>
+        <v>0.0388259484758998</v>
       </c>
       <c r="C3">
-        <v>-0.01516320150143021</v>
+        <v>-0.1004665372365189</v>
       </c>
       <c r="D3">
-        <v>-0.1072156624311901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01766590915930887</v>
+      </c>
+      <c r="E3">
+        <v>0.09724997100369527</v>
+      </c>
+      <c r="F3">
+        <v>0.01847108852214912</v>
+      </c>
+      <c r="G3">
+        <v>-0.1343062087536056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03738908638405022</v>
+        <v>0.05488284814931121</v>
       </c>
       <c r="C4">
-        <v>0.005635180418650638</v>
+        <v>-0.06691753928178465</v>
       </c>
       <c r="D4">
-        <v>-0.06780460252438476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02553567406493326</v>
+      </c>
+      <c r="E4">
+        <v>0.04146592628440125</v>
+      </c>
+      <c r="F4">
+        <v>0.002448418673305623</v>
+      </c>
+      <c r="G4">
+        <v>-0.1020464631448701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01344277022723359</v>
+        <v>0.0346235776373882</v>
       </c>
       <c r="C6">
-        <v>0.00590349593706821</v>
+        <v>-0.05139543448893367</v>
       </c>
       <c r="D6">
-        <v>-0.05525120634614981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01817140893053059</v>
+      </c>
+      <c r="E6">
+        <v>0.04684507790433227</v>
+      </c>
+      <c r="F6">
+        <v>0.00326616811487699</v>
+      </c>
+      <c r="G6">
+        <v>-0.08601422312917056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.003557144436112283</v>
+        <v>0.02041251710174381</v>
       </c>
       <c r="C7">
-        <v>0.007560336976069893</v>
+        <v>-0.03855343679010599</v>
       </c>
       <c r="D7">
-        <v>-0.03513588144048693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01484614843224124</v>
+      </c>
+      <c r="E7">
+        <v>0.01840066649908894</v>
+      </c>
+      <c r="F7">
+        <v>-0.003519537972458332</v>
+      </c>
+      <c r="G7">
+        <v>-0.1271142380725994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001332884618309182</v>
+        <v>0.003781422587320207</v>
       </c>
       <c r="C8">
-        <v>0.00154152720462658</v>
+        <v>-0.02222442970124609</v>
       </c>
       <c r="D8">
-        <v>0.004952624292998003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003892161804951203</v>
+      </c>
+      <c r="E8">
+        <v>0.03156372760431028</v>
+      </c>
+      <c r="F8">
+        <v>0.002005384874983849</v>
+      </c>
+      <c r="G8">
+        <v>-0.06945014597424744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01304301054176042</v>
+        <v>0.03279105880762433</v>
       </c>
       <c r="C9">
-        <v>0.006519070758989214</v>
+        <v>-0.0473619383915871</v>
       </c>
       <c r="D9">
-        <v>-0.04034852403008393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01666323837458422</v>
+      </c>
+      <c r="E9">
+        <v>0.0278265134011401</v>
+      </c>
+      <c r="F9">
+        <v>-0.000591280238369318</v>
+      </c>
+      <c r="G9">
+        <v>-0.1044515781854141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1267432925428362</v>
+        <v>0.09986214263140424</v>
       </c>
       <c r="C10">
-        <v>-0.02372252218369291</v>
+        <v>0.1853492942569101</v>
       </c>
       <c r="D10">
-        <v>0.1716386290698832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01549960842910029</v>
+      </c>
+      <c r="E10">
+        <v>0.02108877997487348</v>
+      </c>
+      <c r="F10">
+        <v>0.02281063130947704</v>
+      </c>
+      <c r="G10">
+        <v>-0.05312947451286281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01879621715750657</v>
+        <v>0.03515601300817157</v>
       </c>
       <c r="C11">
-        <v>-0.009657684807918749</v>
+        <v>-0.05218185270994471</v>
       </c>
       <c r="D11">
-        <v>-0.05011665796508178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002627187722944848</v>
+      </c>
+      <c r="E11">
+        <v>0.02142528223170424</v>
+      </c>
+      <c r="F11">
+        <v>-0.01517054752885994</v>
+      </c>
+      <c r="G11">
+        <v>-0.08689515324638535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0210946997528504</v>
+        <v>0.03742831562214213</v>
       </c>
       <c r="C12">
-        <v>-0.004658612180254542</v>
+        <v>-0.04735039081716024</v>
       </c>
       <c r="D12">
-        <v>-0.04574865441462866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006657786135269405</v>
+      </c>
+      <c r="E12">
+        <v>0.0108161065331283</v>
+      </c>
+      <c r="F12">
+        <v>-0.002217680463166806</v>
+      </c>
+      <c r="G12">
+        <v>-0.08215801007863482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.008350697910148959</v>
+        <v>0.01280670141233438</v>
       </c>
       <c r="C13">
-        <v>0.01759496707865905</v>
+        <v>-0.03913035930858855</v>
       </c>
       <c r="D13">
-        <v>-0.02720809138376319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02808553940470074</v>
+      </c>
+      <c r="E13">
+        <v>0.05174571242770254</v>
+      </c>
+      <c r="F13">
+        <v>0.01266529242821018</v>
+      </c>
+      <c r="G13">
+        <v>-0.1441069326575281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001725029998940229</v>
+        <v>0.0098378240319189</v>
       </c>
       <c r="C14">
-        <v>0.005252147897549827</v>
+        <v>-0.02759550006568088</v>
       </c>
       <c r="D14">
-        <v>-0.02036051652031762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01075042967167467</v>
+      </c>
+      <c r="E14">
+        <v>0.01297395921018388</v>
+      </c>
+      <c r="F14">
+        <v>0.007027085976817097</v>
+      </c>
+      <c r="G14">
+        <v>-0.1140417591852499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01824618980079575</v>
+        <v>0.03378317006437848</v>
       </c>
       <c r="C16">
-        <v>-0.008244025683509872</v>
+        <v>-0.04519190536856154</v>
       </c>
       <c r="D16">
-        <v>-0.03782972963024517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002185266928181598</v>
+      </c>
+      <c r="E16">
+        <v>0.01768468387288478</v>
+      </c>
+      <c r="F16">
+        <v>0.004491227074235672</v>
+      </c>
+      <c r="G16">
+        <v>-0.09077008844266989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01922140731189449</v>
+        <v>0.02015330650811946</v>
       </c>
       <c r="C19">
-        <v>0.003479417995757166</v>
+        <v>-0.05025009522457081</v>
       </c>
       <c r="D19">
-        <v>-0.04601772270537204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02078724561548856</v>
+      </c>
+      <c r="E19">
+        <v>0.08799398976405773</v>
+      </c>
+      <c r="F19">
+        <v>0.005593062829934984</v>
+      </c>
+      <c r="G19">
+        <v>-0.1416142412286117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004703597294009091</v>
+        <v>0.01483031517253624</v>
       </c>
       <c r="C20">
-        <v>0.006674657024882907</v>
+        <v>-0.04107311386775025</v>
       </c>
       <c r="D20">
-        <v>-0.03172528759418583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01514601864118602</v>
+      </c>
+      <c r="E20">
+        <v>0.04196991289200368</v>
+      </c>
+      <c r="F20">
+        <v>0.02361221125424021</v>
+      </c>
+      <c r="G20">
+        <v>-0.1153285764350223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.000328971587297954</v>
+        <v>0.009338007136133013</v>
       </c>
       <c r="C21">
-        <v>0.01240353875610553</v>
+        <v>-0.03779886043782609</v>
       </c>
       <c r="D21">
-        <v>-0.01765638588207303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02010066924232775</v>
+      </c>
+      <c r="E21">
+        <v>0.05092681084140686</v>
+      </c>
+      <c r="F21">
+        <v>0.01312042614473583</v>
+      </c>
+      <c r="G21">
+        <v>-0.143967612927944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.000946646528637174</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006447237127331089</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002216762159517463</v>
+      </c>
+      <c r="E22">
+        <v>0.01809782065814687</v>
+      </c>
+      <c r="F22">
+        <v>-0.005773319250453176</v>
+      </c>
+      <c r="G22">
+        <v>-0.005139859797516139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009562761916905813</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006414725899630905</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002212587100073243</v>
+      </c>
+      <c r="E23">
+        <v>0.01810995434383707</v>
+      </c>
+      <c r="F23">
+        <v>-0.005563730081139059</v>
+      </c>
+      <c r="G23">
+        <v>-0.004979039886647472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.01123066213623923</v>
+        <v>0.02913758645422097</v>
       </c>
       <c r="C24">
-        <v>-0.002015290716342312</v>
+        <v>-0.048807647679361</v>
       </c>
       <c r="D24">
-        <v>-0.04267162516304455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00729902743449353</v>
+      </c>
+      <c r="E24">
+        <v>0.01653270667055364</v>
+      </c>
+      <c r="F24">
+        <v>-0.006326130158156293</v>
+      </c>
+      <c r="G24">
+        <v>-0.09057907045847421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02806795994236736</v>
+        <v>0.042310108898541</v>
       </c>
       <c r="C25">
-        <v>-0.002577118756906898</v>
+        <v>-0.05669588217086551</v>
       </c>
       <c r="D25">
-        <v>-0.0548579868190357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01139586630813521</v>
+      </c>
+      <c r="E25">
+        <v>0.007838996548027758</v>
+      </c>
+      <c r="F25">
+        <v>-0.00478687885572309</v>
+      </c>
+      <c r="G25">
+        <v>-0.09695815431340374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.003267751145910298</v>
+        <v>0.01464695684965877</v>
       </c>
       <c r="C26">
-        <v>0.02224994556937767</v>
+        <v>-0.0113781403521681</v>
       </c>
       <c r="D26">
-        <v>-0.0004832294123244139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02424840957917032</v>
+      </c>
+      <c r="E26">
+        <v>0.008780381023737084</v>
+      </c>
+      <c r="F26">
+        <v>0.00620191534825377</v>
+      </c>
+      <c r="G26">
+        <v>-0.08446117605719311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1624206840058724</v>
+        <v>0.1296260858241426</v>
       </c>
       <c r="C28">
-        <v>-0.01644124945214869</v>
+        <v>0.2427180060356131</v>
       </c>
       <c r="D28">
-        <v>0.2060909147678241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006938982228409269</v>
+      </c>
+      <c r="E28">
+        <v>0.001852064968454788</v>
+      </c>
+      <c r="F28">
+        <v>0.02193680821526063</v>
+      </c>
+      <c r="G28">
+        <v>-0.04832645509620296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006913742226385201</v>
+        <v>0.009300897137602862</v>
       </c>
       <c r="C29">
-        <v>0.003776941296006768</v>
+        <v>-0.02345568706928262</v>
       </c>
       <c r="D29">
-        <v>-0.01607207121083917</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009603875218647525</v>
+      </c>
+      <c r="E29">
+        <v>0.005638198162905111</v>
+      </c>
+      <c r="F29">
+        <v>0.01237600425131501</v>
+      </c>
+      <c r="G29">
+        <v>-0.1028227400002165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02942845832636892</v>
+        <v>0.03932309290305092</v>
       </c>
       <c r="C30">
-        <v>0.008005845741298701</v>
+        <v>-0.06654480313568635</v>
       </c>
       <c r="D30">
-        <v>-0.08691305691214134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03014618349568963</v>
+      </c>
+      <c r="E30">
+        <v>0.07067971029054092</v>
+      </c>
+      <c r="F30">
+        <v>-0.02232042336292267</v>
+      </c>
+      <c r="G30">
+        <v>-0.1287424589245053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02791837896065099</v>
+        <v>0.05336864619299598</v>
       </c>
       <c r="C31">
-        <v>-0.004606698555486234</v>
+        <v>-0.03963094486666995</v>
       </c>
       <c r="D31">
-        <v>-0.01657184596715701</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003798498150945282</v>
+      </c>
+      <c r="E31">
+        <v>-0.0032553589746146</v>
+      </c>
+      <c r="F31">
+        <v>0.03619577849175681</v>
+      </c>
+      <c r="G31">
+        <v>-0.09861867803802428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006373143397041783</v>
+        <v>0.002036318388513548</v>
       </c>
       <c r="C32">
-        <v>-0.01073329677060298</v>
+        <v>-0.02112944987572192</v>
       </c>
       <c r="D32">
-        <v>-0.01999158954822016</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001711428340334683</v>
+      </c>
+      <c r="E32">
+        <v>0.04754955288078627</v>
+      </c>
+      <c r="F32">
+        <v>-0.03137846971879897</v>
+      </c>
+      <c r="G32">
+        <v>-0.08162567641077105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0157354592965745</v>
+        <v>0.02749866204316544</v>
       </c>
       <c r="C33">
-        <v>0.002736377569675265</v>
+        <v>-0.0500941423369435</v>
       </c>
       <c r="D33">
-        <v>-0.04669567112665039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01696593451713593</v>
+      </c>
+      <c r="E33">
+        <v>0.05520837419012806</v>
+      </c>
+      <c r="F33">
+        <v>-0.005693630872926035</v>
+      </c>
+      <c r="G33">
+        <v>-0.1609078261973123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.02973679483310685</v>
+        <v>0.04092854730475473</v>
       </c>
       <c r="C34">
-        <v>-0.01944351601477544</v>
+        <v>-0.05940875068336871</v>
       </c>
       <c r="D34">
-        <v>-0.05056946665496547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004288155793080758</v>
+      </c>
+      <c r="E34">
+        <v>0.0135609471800899</v>
+      </c>
+      <c r="F34">
+        <v>-0.0182487159698788</v>
+      </c>
+      <c r="G34">
+        <v>-0.09107104010623798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.005567372910685778</v>
+        <v>0.01611760477441401</v>
       </c>
       <c r="C36">
-        <v>0.009711634866948416</v>
+        <v>-0.009539941842032308</v>
       </c>
       <c r="D36">
-        <v>0.001095016723442933</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01291014898645039</v>
+      </c>
+      <c r="E36">
+        <v>0.01072836448886046</v>
+      </c>
+      <c r="F36">
+        <v>0.00978624811390422</v>
+      </c>
+      <c r="G36">
+        <v>-0.09349165868546812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02297332169789512</v>
+        <v>0.03256872178545286</v>
       </c>
       <c r="C38">
-        <v>-0.01636983241850849</v>
+        <v>-0.02846389344561917</v>
       </c>
       <c r="D38">
-        <v>-0.01919217079458454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007819824231792021</v>
+      </c>
+      <c r="E38">
+        <v>0.006255729896497213</v>
+      </c>
+      <c r="F38">
+        <v>0.01823657861161289</v>
+      </c>
+      <c r="G38">
+        <v>-0.08666220850419974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.007426192555129157</v>
+        <v>0.03641585982384395</v>
       </c>
       <c r="C39">
-        <v>-0.001982048403696496</v>
+        <v>-0.07878044256098311</v>
       </c>
       <c r="D39">
-        <v>-0.0889012137931651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0123445489231554</v>
+      </c>
+      <c r="E39">
+        <v>0.03230503190265228</v>
+      </c>
+      <c r="F39">
+        <v>-0.01646595792076062</v>
+      </c>
+      <c r="G39">
+        <v>-0.09454314781046454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01989004127890422</v>
+        <v>0.01401154226669261</v>
       </c>
       <c r="C40">
-        <v>0.003743147937761281</v>
+        <v>-0.03727854545359605</v>
       </c>
       <c r="D40">
-        <v>-0.01908847161069232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01520250862116417</v>
+      </c>
+      <c r="E40">
+        <v>0.03474041397153275</v>
+      </c>
+      <c r="F40">
+        <v>0.01635494124866778</v>
+      </c>
+      <c r="G40">
+        <v>-0.1258479162654334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01130203519359951</v>
+        <v>0.02058283484565323</v>
       </c>
       <c r="C41">
-        <v>0.0008787656204527096</v>
+        <v>-0.003067286334821321</v>
       </c>
       <c r="D41">
-        <v>0.004622852537130157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004902985077735098</v>
+      </c>
+      <c r="E41">
+        <v>0.01018435949385969</v>
+      </c>
+      <c r="F41">
+        <v>0.01527633354181691</v>
+      </c>
+      <c r="G41">
+        <v>-0.08991205727076211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01428301746740731</v>
+        <v>0.005334677656717053</v>
       </c>
       <c r="C42">
-        <v>0.08069160685970632</v>
+        <v>-0.02870204672395924</v>
       </c>
       <c r="D42">
-        <v>-0.07028306691010801</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08462605564661387</v>
+      </c>
+      <c r="E42">
+        <v>-0.007778387050319384</v>
+      </c>
+      <c r="F42">
+        <v>0.03657268275044288</v>
+      </c>
+      <c r="G42">
+        <v>0.02575039365520633</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02455812460247786</v>
+        <v>0.03548711022220508</v>
       </c>
       <c r="C43">
-        <v>-0.003409354039299452</v>
+        <v>-0.01758484116189677</v>
       </c>
       <c r="D43">
-        <v>-0.004263021496092438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006244722255912858</v>
+      </c>
+      <c r="E43">
+        <v>0.02561286119103613</v>
+      </c>
+      <c r="F43">
+        <v>0.01179674591728889</v>
+      </c>
+      <c r="G43">
+        <v>-0.119987004910839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.007169306481007031</v>
+        <v>0.01300235706325838</v>
       </c>
       <c r="C44">
-        <v>-0.003077025521952196</v>
+        <v>-0.05591354205421666</v>
       </c>
       <c r="D44">
-        <v>-0.04551693675427959</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007669266155029895</v>
+      </c>
+      <c r="E44">
+        <v>0.03204895384323625</v>
+      </c>
+      <c r="F44">
+        <v>0.01845761201123411</v>
+      </c>
+      <c r="G44">
+        <v>-0.1183827228122808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.00209219928217538</v>
+        <v>0.008635405806201953</v>
       </c>
       <c r="C46">
-        <v>0.01134202033797443</v>
+        <v>-0.01544551028022996</v>
       </c>
       <c r="D46">
-        <v>0.002094589834868244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01279146899523277</v>
+      </c>
+      <c r="E46">
+        <v>0.000190379994814795</v>
+      </c>
+      <c r="F46">
+        <v>0.01564218030511509</v>
+      </c>
+      <c r="G46">
+        <v>-0.1088442355570424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04861535997948602</v>
+        <v>0.07926068910789161</v>
       </c>
       <c r="C47">
-        <v>-0.02153668983809473</v>
+        <v>-0.07164758626695376</v>
       </c>
       <c r="D47">
-        <v>-0.05863469579503999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005055974720352485</v>
+      </c>
+      <c r="E47">
+        <v>-0.01074096708772113</v>
+      </c>
+      <c r="F47">
+        <v>0.04818556898558721</v>
+      </c>
+      <c r="G47">
+        <v>-0.08676542378643451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00483585117542897</v>
+        <v>0.01952268649828</v>
       </c>
       <c r="C48">
-        <v>-0.0004327550639286353</v>
+        <v>-0.0131351938517308</v>
       </c>
       <c r="D48">
-        <v>-0.0008385589653057363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.00244111099404995</v>
+      </c>
+      <c r="E48">
+        <v>0.005107412174288386</v>
+      </c>
+      <c r="F48">
+        <v>0.02124285223709209</v>
+      </c>
+      <c r="G48">
+        <v>-0.1024089319984758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05161856817942308</v>
+        <v>0.07422388414765387</v>
       </c>
       <c r="C50">
-        <v>-0.02016188632676553</v>
+        <v>-0.07353931780332619</v>
       </c>
       <c r="D50">
-        <v>-0.0503278727791467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002212542290810369</v>
+      </c>
+      <c r="E50">
+        <v>-0.0117168235538274</v>
+      </c>
+      <c r="F50">
+        <v>0.04971260345986239</v>
+      </c>
+      <c r="G50">
+        <v>-0.09765343774652947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.004044839600807168</v>
+        <v>0.01213848165149927</v>
       </c>
       <c r="C51">
-        <v>0.003098699424659395</v>
+        <v>-0.03680713213390415</v>
       </c>
       <c r="D51">
-        <v>-0.02568684147985836</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01147179656484917</v>
+      </c>
+      <c r="E51">
+        <v>0.03406353949459277</v>
+      </c>
+      <c r="F51">
+        <v>-0.0114956325037657</v>
+      </c>
+      <c r="G51">
+        <v>-0.1223673892337723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0720054682167706</v>
+        <v>0.08119498273636891</v>
       </c>
       <c r="C53">
-        <v>-0.02893264896807435</v>
+        <v>-0.0839772777060626</v>
       </c>
       <c r="D53">
-        <v>-0.08264580113657277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003928869536076717</v>
+      </c>
+      <c r="E53">
+        <v>-0.03240094024766295</v>
+      </c>
+      <c r="F53">
+        <v>0.05394794902951109</v>
+      </c>
+      <c r="G53">
+        <v>-0.0905631560811449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01495473592779116</v>
+        <v>0.03243544058848932</v>
       </c>
       <c r="C54">
-        <v>-0.006425021258100214</v>
+        <v>-0.01734297180374847</v>
       </c>
       <c r="D54">
-        <v>0.001310625810999553</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0006919940646374415</v>
+      </c>
+      <c r="E54">
+        <v>0.01996755920606592</v>
+      </c>
+      <c r="F54">
+        <v>0.0109955429652511</v>
+      </c>
+      <c r="G54">
+        <v>-0.1114230007728983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.04579491153827432</v>
+        <v>0.07377833322129551</v>
       </c>
       <c r="C55">
-        <v>-0.02119755952119406</v>
+        <v>-0.0676255251336158</v>
       </c>
       <c r="D55">
-        <v>-0.06568703822222438</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005499887233815552</v>
+      </c>
+      <c r="E55">
+        <v>-0.03098039823879488</v>
+      </c>
+      <c r="F55">
+        <v>0.05217927566893309</v>
+      </c>
+      <c r="G55">
+        <v>-0.06802738147858131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1035030215999941</v>
+        <v>0.1357630951576569</v>
       </c>
       <c r="C56">
-        <v>-0.04609510481622531</v>
+        <v>-0.1070759867922752</v>
       </c>
       <c r="D56">
-        <v>-0.1146744267366799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01304479972615168</v>
+      </c>
+      <c r="E56">
+        <v>-0.04003251625041833</v>
+      </c>
+      <c r="F56">
+        <v>0.065319866783502</v>
+      </c>
+      <c r="G56">
+        <v>-0.04721696799266074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01244787490561195</v>
+        <v>0.00395953463538419</v>
       </c>
       <c r="C57">
-        <v>0.01771554013187922</v>
+        <v>-0.004677515636866932</v>
       </c>
       <c r="D57">
-        <v>-0.01529078724264629</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02270333209276518</v>
+      </c>
+      <c r="E57">
+        <v>0.02461530467318283</v>
+      </c>
+      <c r="F57">
+        <v>-0.0009706993546646434</v>
+      </c>
+      <c r="G57">
+        <v>-0.01705844113162778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02757288448698279</v>
+        <v>0.04359461866625584</v>
       </c>
       <c r="C58">
-        <v>-0.01862153327220035</v>
+        <v>-0.03966225970674178</v>
       </c>
       <c r="D58">
-        <v>-0.09867943842740332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02882180139408878</v>
+      </c>
+      <c r="E58">
+        <v>0.8103420794375567</v>
+      </c>
+      <c r="F58">
+        <v>0.4887423768535544</v>
+      </c>
+      <c r="G58">
+        <v>0.2507940266994779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2004039574202667</v>
+        <v>0.1606022021952139</v>
       </c>
       <c r="C59">
-        <v>-0.0335056149258491</v>
+        <v>0.2072465728817236</v>
       </c>
       <c r="D59">
-        <v>0.1908595810936443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01121979223932108</v>
+      </c>
+      <c r="E59">
+        <v>0.02255892375561792</v>
+      </c>
+      <c r="F59">
+        <v>0.005494242598248342</v>
+      </c>
+      <c r="G59">
+        <v>-0.03455383778515665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3004582315202302</v>
+        <v>0.286784582705957</v>
       </c>
       <c r="C60">
-        <v>-0.07921360719528767</v>
+        <v>-0.1149803820036769</v>
       </c>
       <c r="D60">
-        <v>-0.1781817753511623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01529393919741058</v>
+      </c>
+      <c r="E60">
+        <v>0.09010284565793723</v>
+      </c>
+      <c r="F60">
+        <v>-0.3213465966949904</v>
+      </c>
+      <c r="G60">
+        <v>0.1618190804748523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.01603942130512089</v>
+        <v>0.03898242452230465</v>
       </c>
       <c r="C61">
-        <v>-0.008371113864814496</v>
+        <v>-0.06518185858165335</v>
       </c>
       <c r="D61">
-        <v>-0.06923413816764591</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006297448724320314</v>
+      </c>
+      <c r="E61">
+        <v>0.03083535821155719</v>
+      </c>
+      <c r="F61">
+        <v>-0.01022084297489556</v>
+      </c>
+      <c r="G61">
+        <v>-0.09894687299693367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007795895740455282</v>
+        <v>0.01449945084042899</v>
       </c>
       <c r="C63">
-        <v>0.002623988936864232</v>
+        <v>-0.03011632630122043</v>
       </c>
       <c r="D63">
-        <v>-0.02882630432078963</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008772254796968908</v>
+      </c>
+      <c r="E63">
+        <v>0.005524103423003299</v>
+      </c>
+      <c r="F63">
+        <v>0.01496453715080345</v>
+      </c>
+      <c r="G63">
+        <v>-0.09441826666367006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.03467919591004388</v>
+        <v>0.04970435573596964</v>
       </c>
       <c r="C64">
-        <v>-0.007922749147662816</v>
+        <v>-0.0461599755973747</v>
       </c>
       <c r="D64">
-        <v>-0.03795527810472692</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005944261636166053</v>
+      </c>
+      <c r="E64">
+        <v>0.005286439856396365</v>
+      </c>
+      <c r="F64">
+        <v>-0.006062334145972777</v>
+      </c>
+      <c r="G64">
+        <v>-0.09897242606597299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.05986858561808132</v>
+        <v>0.07362921426338188</v>
       </c>
       <c r="C65">
-        <v>-0.008565374762238634</v>
+        <v>-0.05989147044548971</v>
       </c>
       <c r="D65">
-        <v>-0.09001162538812665</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01747347489459483</v>
+      </c>
+      <c r="E65">
+        <v>0.04890539689714574</v>
+      </c>
+      <c r="F65">
+        <v>-0.01167310220231233</v>
+      </c>
+      <c r="G65">
+        <v>-0.04012656485441845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01835510741335003</v>
+        <v>0.04817966351740695</v>
       </c>
       <c r="C66">
-        <v>-0.0103289799826417</v>
+        <v>-0.1062553026002752</v>
       </c>
       <c r="D66">
-        <v>-0.1371083355893277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01304311647050864</v>
+      </c>
+      <c r="E66">
+        <v>0.05292333760580309</v>
+      </c>
+      <c r="F66">
+        <v>-0.02550746034442853</v>
+      </c>
+      <c r="G66">
+        <v>-0.1032580582829672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04822791173978225</v>
+        <v>0.05580669379236425</v>
       </c>
       <c r="C67">
-        <v>-0.02080070259500968</v>
+        <v>-0.03406059055685953</v>
       </c>
       <c r="D67">
-        <v>-0.03170206302687203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006405330280220148</v>
+      </c>
+      <c r="E67">
+        <v>-0.004716152892724992</v>
+      </c>
+      <c r="F67">
+        <v>0.0139190619600225</v>
+      </c>
+      <c r="G67">
+        <v>-0.07346543828778686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1911983157588432</v>
+        <v>0.1590459161136373</v>
       </c>
       <c r="C68">
-        <v>-0.006067573703512122</v>
+        <v>0.2697561531222841</v>
       </c>
       <c r="D68">
-        <v>0.2390321746367906</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.00484468838289186</v>
+      </c>
+      <c r="E68">
+        <v>-0.002206640358282238</v>
+      </c>
+      <c r="F68">
+        <v>0.045038364627733</v>
+      </c>
+      <c r="G68">
+        <v>-0.01956045083417511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.05435806884751995</v>
+        <v>0.08169928276627667</v>
       </c>
       <c r="C69">
-        <v>-0.0262152124904553</v>
+        <v>-0.07431256964779862</v>
       </c>
       <c r="D69">
-        <v>-0.05222819794433733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008991760983333007</v>
+      </c>
+      <c r="E69">
+        <v>-0.02375390060210176</v>
+      </c>
+      <c r="F69">
+        <v>0.02854223451568144</v>
+      </c>
+      <c r="G69">
+        <v>-0.0985672065399275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1702241868002624</v>
+        <v>0.1456390814440798</v>
       </c>
       <c r="C71">
-        <v>-0.01700530755760454</v>
+        <v>0.2295564086464779</v>
       </c>
       <c r="D71">
-        <v>0.1883701730067293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003297665112191468</v>
+      </c>
+      <c r="E71">
+        <v>0.02956689615097709</v>
+      </c>
+      <c r="F71">
+        <v>0.02740829343355263</v>
+      </c>
+      <c r="G71">
+        <v>-0.06557490585168625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0593296892278618</v>
+        <v>0.08662928687863053</v>
       </c>
       <c r="C72">
-        <v>-0.0313427454987808</v>
+        <v>-0.06957487257438763</v>
       </c>
       <c r="D72">
-        <v>-0.07264595620182782</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008324669693201173</v>
+      </c>
+      <c r="E72">
+        <v>-0.004097555604562148</v>
+      </c>
+      <c r="F72">
+        <v>-0.03251646340925215</v>
+      </c>
+      <c r="G72">
+        <v>-0.08932980093457657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3803266343356991</v>
+        <v>0.3708405808667471</v>
       </c>
       <c r="C73">
-        <v>-0.1004756230463599</v>
+        <v>-0.1212714246737413</v>
       </c>
       <c r="D73">
-        <v>-0.2538644591232689</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02731985326946375</v>
+      </c>
+      <c r="E73">
+        <v>0.2188867159214775</v>
+      </c>
+      <c r="F73">
+        <v>-0.5477746166071489</v>
+      </c>
+      <c r="G73">
+        <v>0.3107047773477489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.09050659686760766</v>
+        <v>0.1045038875759975</v>
       </c>
       <c r="C74">
-        <v>-0.04354178264161961</v>
+        <v>-0.1088337168184568</v>
       </c>
       <c r="D74">
-        <v>-0.127127016136172</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009516564716003718</v>
+      </c>
+      <c r="E74">
+        <v>-0.01398042580593655</v>
+      </c>
+      <c r="F74">
+        <v>0.05896581109543982</v>
+      </c>
+      <c r="G74">
+        <v>-0.07425430849993218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2006931653691523</v>
+        <v>0.2468052288802361</v>
       </c>
       <c r="C75">
-        <v>-0.08589290919918141</v>
+        <v>-0.1524680744223508</v>
       </c>
       <c r="D75">
-        <v>-0.1848733676662096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03214786326971101</v>
+      </c>
+      <c r="E75">
+        <v>-0.100228748001685</v>
+      </c>
+      <c r="F75">
+        <v>0.145336797945503</v>
+      </c>
+      <c r="G75">
+        <v>0.009462584675692885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.101035178827761</v>
+        <v>0.115091515805206</v>
       </c>
       <c r="C76">
-        <v>-0.05311217488659876</v>
+        <v>-0.1109845033921884</v>
       </c>
       <c r="D76">
-        <v>-0.1278334537292795</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01812630775188293</v>
+      </c>
+      <c r="E76">
+        <v>-0.04344864442507947</v>
+      </c>
+      <c r="F76">
+        <v>0.08740547419622015</v>
+      </c>
+      <c r="G76">
+        <v>-0.05733928501271847</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03761987728407413</v>
+        <v>0.07136248734783399</v>
       </c>
       <c r="C77">
-        <v>-0.00816955854090849</v>
+        <v>-0.05763045343908227</v>
       </c>
       <c r="D77">
-        <v>-0.06698331751977921</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01056008919253429</v>
+      </c>
+      <c r="E77">
+        <v>0.05291534458886275</v>
+      </c>
+      <c r="F77">
+        <v>0.002661040338708666</v>
+      </c>
+      <c r="G77">
+        <v>-0.07041710901115428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02921219925682327</v>
+        <v>0.04185525942786741</v>
       </c>
       <c r="C78">
-        <v>-0.009797789159315593</v>
+        <v>-0.05096300177734327</v>
       </c>
       <c r="D78">
-        <v>-0.06104645369595783</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.007164596635199652</v>
+      </c>
+      <c r="E78">
+        <v>0.04239728102593135</v>
+      </c>
+      <c r="F78">
+        <v>-0.02961807192470938</v>
+      </c>
+      <c r="G78">
+        <v>-0.1033770996649985</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001197192248810445</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0009066146666551388</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.000526261285916039</v>
+      </c>
+      <c r="E79">
+        <v>0.005907147670409874</v>
+      </c>
+      <c r="F79">
+        <v>9.587043909909109e-05</v>
+      </c>
+      <c r="G79">
+        <v>-0.003841350345386962</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04514508275762951</v>
+        <v>0.04179635102520921</v>
       </c>
       <c r="C80">
-        <v>-0.007052699081730273</v>
+        <v>-0.05378082483183284</v>
       </c>
       <c r="D80">
-        <v>-0.06929496566509105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01408391687078986</v>
+      </c>
+      <c r="E80">
+        <v>0.03161392237071334</v>
+      </c>
+      <c r="F80">
+        <v>0.0008236185746391011</v>
+      </c>
+      <c r="G80">
+        <v>-0.0497547765893217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1089034787036386</v>
+        <v>0.1380306894229441</v>
       </c>
       <c r="C81">
-        <v>-0.04596788740089858</v>
+        <v>-0.09552304945718003</v>
       </c>
       <c r="D81">
-        <v>-0.09512307929852483</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01575616029211539</v>
+      </c>
+      <c r="E81">
+        <v>-0.05981175372857441</v>
+      </c>
+      <c r="F81">
+        <v>0.1133113457834113</v>
+      </c>
+      <c r="G81">
+        <v>-0.02551220488647643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.02599902692672429</v>
+        <v>0.1477944732831745</v>
       </c>
       <c r="C82">
-        <v>-0.009223893146217951</v>
+        <v>-0.08865302569500955</v>
       </c>
       <c r="D82">
-        <v>-0.02175949689918613</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01359151027047551</v>
+      </c>
+      <c r="E82">
+        <v>-0.1308283807775244</v>
+      </c>
+      <c r="F82">
+        <v>0.04283205521067896</v>
+      </c>
+      <c r="G82">
+        <v>-0.06015135750587613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01978728904637715</v>
+        <v>0.03371028236212428</v>
       </c>
       <c r="C83">
-        <v>-0.002804715435623712</v>
+        <v>-0.03273195409633463</v>
       </c>
       <c r="D83">
-        <v>-0.02039565960985591</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006879705885848475</v>
+      </c>
+      <c r="E83">
+        <v>0.03466193467263074</v>
+      </c>
+      <c r="F83">
+        <v>-0.03136320144340689</v>
+      </c>
+      <c r="G83">
+        <v>-0.05871234717519373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1984164845744041</v>
+        <v>0.2081722699936352</v>
       </c>
       <c r="C85">
-        <v>-0.07521137185660434</v>
+        <v>-0.146109471041358</v>
       </c>
       <c r="D85">
-        <v>-0.200847466534753</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01768296056765929</v>
+      </c>
+      <c r="E85">
+        <v>-0.1145022371925694</v>
+      </c>
+      <c r="F85">
+        <v>0.08089780255236553</v>
+      </c>
+      <c r="G85">
+        <v>0.04681595654560956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01480650397113401</v>
+        <v>0.01346128310867428</v>
       </c>
       <c r="C86">
-        <v>-0.0002132438451831736</v>
+        <v>-0.02749038446347869</v>
       </c>
       <c r="D86">
-        <v>-0.02208557365771345</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01259504948183288</v>
+      </c>
+      <c r="E86">
+        <v>0.06482516769346695</v>
+      </c>
+      <c r="F86">
+        <v>-0.02238092498947222</v>
+      </c>
+      <c r="G86">
+        <v>-0.1829196551903309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005137888468196974</v>
+        <v>0.02147589659498425</v>
       </c>
       <c r="C87">
-        <v>0.007395783876600691</v>
+        <v>-0.01643581527987568</v>
       </c>
       <c r="D87">
-        <v>-0.02565469542869178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01307692083999366</v>
+      </c>
+      <c r="E87">
+        <v>0.1002353953415282</v>
+      </c>
+      <c r="F87">
+        <v>0.01819960338911206</v>
+      </c>
+      <c r="G87">
+        <v>-0.1228601351434361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06687835365169409</v>
+        <v>0.0911710194906097</v>
       </c>
       <c r="C88">
-        <v>5.109890889749214e-06</v>
+        <v>-0.07117926464698836</v>
       </c>
       <c r="D88">
-        <v>-0.06675776142812972</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02239744692881342</v>
+      </c>
+      <c r="E88">
+        <v>-0.002872087671441835</v>
+      </c>
+      <c r="F88">
+        <v>0.02152178974356011</v>
+      </c>
+      <c r="G88">
+        <v>-0.0992420506084673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2918487113149207</v>
+        <v>0.2344680852642054</v>
       </c>
       <c r="C89">
-        <v>-0.02242709793624725</v>
+        <v>0.3650837564820352</v>
       </c>
       <c r="D89">
-        <v>0.3288662852358077</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001951351971449485</v>
+      </c>
+      <c r="E89">
+        <v>-0.02546865131169555</v>
+      </c>
+      <c r="F89">
+        <v>0.01978618868100554</v>
+      </c>
+      <c r="G89">
+        <v>-0.07704383468940104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.245414838354595</v>
+        <v>0.2121252540212799</v>
       </c>
       <c r="C90">
-        <v>-0.02050321824549352</v>
+        <v>0.3151118740157099</v>
       </c>
       <c r="D90">
-        <v>0.2935403714250731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004710889875209918</v>
+      </c>
+      <c r="E90">
+        <v>-0.007877018308019261</v>
+      </c>
+      <c r="F90">
+        <v>0.04804959120417834</v>
+      </c>
+      <c r="G90">
+        <v>-0.0513728004448868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.157816209791119</v>
+        <v>0.1846541983055802</v>
       </c>
       <c r="C91">
-        <v>-0.06747472466653159</v>
+        <v>-0.1366590650395986</v>
       </c>
       <c r="D91">
-        <v>-0.1256906488962082</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02316164975476349</v>
+      </c>
+      <c r="E91">
+        <v>-0.08363817911957611</v>
+      </c>
+      <c r="F91">
+        <v>0.1143586142168106</v>
+      </c>
+      <c r="G91">
+        <v>-0.03153734865895837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2301283600225149</v>
+        <v>0.1997863022980672</v>
       </c>
       <c r="C92">
-        <v>-0.05875970678834545</v>
+        <v>0.2574879236536106</v>
       </c>
       <c r="D92">
-        <v>0.2365365385708132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0385295751072706</v>
+      </c>
+      <c r="E92">
+        <v>0.02154617646124712</v>
+      </c>
+      <c r="F92">
+        <v>0.05743815335394044</v>
+      </c>
+      <c r="G92">
+        <v>-0.09134529717328718</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.269822006506023</v>
+        <v>0.2354941303858578</v>
       </c>
       <c r="C93">
-        <v>-0.03597182156679648</v>
+        <v>0.3078824557195791</v>
       </c>
       <c r="D93">
-        <v>0.2639829816348065</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.010961522878769</v>
+      </c>
+      <c r="E93">
+        <v>0.003114816053577811</v>
+      </c>
+      <c r="F93">
+        <v>0.038888887983916</v>
+      </c>
+      <c r="G93">
+        <v>-0.05900493834622598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2206086302827004</v>
+        <v>0.3203370701122218</v>
       </c>
       <c r="C94">
-        <v>-0.07026864921722183</v>
+        <v>-0.1946566864759512</v>
       </c>
       <c r="D94">
-        <v>-0.1912335427508345</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02492597564033401</v>
+      </c>
+      <c r="E94">
+        <v>-0.3385639658579552</v>
+      </c>
+      <c r="F94">
+        <v>0.4219759698721904</v>
+      </c>
+      <c r="G94">
+        <v>0.3941973148017452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06601324187867046</v>
+        <v>0.0957420891363958</v>
       </c>
       <c r="C95">
-        <v>-0.03787559406022144</v>
+        <v>-0.08201708143206785</v>
       </c>
       <c r="D95">
-        <v>-0.1363303822272103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009733989525176021</v>
+      </c>
+      <c r="E95">
+        <v>0.1012397669271479</v>
+      </c>
+      <c r="F95">
+        <v>-0.1605865473329324</v>
+      </c>
+      <c r="G95">
+        <v>-0.0101692210343808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1858986491285028</v>
+        <v>0.1896641766842612</v>
       </c>
       <c r="C98">
-        <v>-0.0703071894311682</v>
+        <v>-0.0492637637342371</v>
       </c>
       <c r="D98">
-        <v>-0.09003777048737222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01015550865536468</v>
+      </c>
+      <c r="E98">
+        <v>0.1267911616319069</v>
+      </c>
+      <c r="F98">
+        <v>-0.2107346946521098</v>
+      </c>
+      <c r="G98">
+        <v>0.03244716244746161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006602665574281203</v>
+        <v>0.009144940702224661</v>
       </c>
       <c r="C101">
-        <v>0.003676916741049964</v>
+        <v>-0.02333552720198813</v>
       </c>
       <c r="D101">
-        <v>-0.01631214487912717</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009424862497541259</v>
+      </c>
+      <c r="E101">
+        <v>0.005211358442200057</v>
+      </c>
+      <c r="F101">
+        <v>0.01326973365277977</v>
+      </c>
+      <c r="G101">
+        <v>-0.1024195154993966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.09988389440346405</v>
+        <v>0.1173385087305389</v>
       </c>
       <c r="C102">
-        <v>-0.02883745434758056</v>
+        <v>-0.08539093915570996</v>
       </c>
       <c r="D102">
-        <v>-0.09401989632447706</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0004434087501627714</v>
+      </c>
+      <c r="E102">
+        <v>-0.04171954386549766</v>
+      </c>
+      <c r="F102">
+        <v>0.02563577068382806</v>
+      </c>
+      <c r="G102">
+        <v>-0.01653130950224057</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.2304598370966408</v>
+        <v>0.02116619665928995</v>
       </c>
       <c r="C104">
-        <v>0.9600467260937964</v>
+        <v>0.02964184489736335</v>
       </c>
       <c r="D104">
-        <v>-0.08862237775950921</v>
+        <v>0.9871880741875046</v>
+      </c>
+      <c r="E104">
+        <v>-0.07027473117342881</v>
+      </c>
+      <c r="F104">
+        <v>0.02682004876087508</v>
+      </c>
+      <c r="G104">
+        <v>0.03940963475240927</v>
       </c>
     </row>
   </sheetData>
